--- a/choppies/Choppies.xlsx
+++ b/choppies/Choppies.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmolefe\Documents\Choppies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmolefe\Documents\Choppies\choppies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Choppies" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="399">
   <si>
     <t>Name</t>
   </si>
@@ -606,9 +606,6 @@
     <t>Plot 2133; Kasane North East</t>
   </si>
   <si>
-    <t>Registred</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -1216,6 +1213,21 @@
   </si>
   <si>
     <t>Mochudi Spar</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>choppies</t>
+  </si>
+  <si>
+    <t>picknpay</t>
+  </si>
+  <si>
+    <t>spar</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1284,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1282,12 +1294,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1318,11 +1324,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1617,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,9 +1634,10 @@
     <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1655,11 +1659,17 @@
       <c r="G1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1681,11 +1691,15 @@
       <c r="G2" s="5">
         <v>41164</v>
       </c>
-      <c r="H2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="5"/>
+      <c r="I2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1707,11 +1721,15 @@
       <c r="G3" s="5">
         <v>39367</v>
       </c>
-      <c r="H3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="5"/>
+      <c r="I3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>-23.110993198758301</v>
@@ -1733,107 +1751,127 @@
       <c r="G4" s="5">
         <v>40921</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-23.095894757252299</v>
+      </c>
+      <c r="F5" s="1">
+        <v>26.8449800356249</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="20">
+        <v>40956</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-22.540309418618701</v>
+      </c>
+      <c r="F7" s="10">
+        <v>27.0890642264165</v>
+      </c>
+      <c r="G7" s="11">
+        <v>38565</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="10">
-        <v>-23.095894757252299</v>
-      </c>
-      <c r="F5" s="10">
-        <v>26.8449800356249</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="11">
-        <v>40956</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="12">
-        <v>-22.540309418618701</v>
-      </c>
-      <c r="F7" s="12">
-        <v>27.0890642264165</v>
-      </c>
-      <c r="G7" s="13">
-        <v>38565</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>-22.5424668488854</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>27.087229291707299</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>44159</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="11"/>
+      <c r="I8" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1855,11 +1893,15 @@
       <c r="G9" s="5">
         <v>40528</v>
       </c>
-      <c r="H9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="5"/>
+      <c r="I9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1881,11 +1923,15 @@
       <c r="G10" s="7">
         <v>38734</v>
       </c>
-      <c r="H10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="7"/>
+      <c r="I10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1907,11 +1953,14 @@
       <c r="G11" s="8">
         <v>38397</v>
       </c>
-      <c r="H11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1933,11 +1982,14 @@
       <c r="G12" s="8">
         <v>40277</v>
       </c>
-      <c r="H12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1959,11 +2011,14 @@
       <c r="G13" s="8">
         <v>41098</v>
       </c>
-      <c r="H13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1985,11 +2040,14 @@
       <c r="G14" s="8">
         <v>44497</v>
       </c>
-      <c r="H14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2000,7 +2058,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E15">
         <v>-21.433016300676499</v>
@@ -2011,11 +2069,14 @@
       <c r="G15" s="8">
         <v>41211</v>
       </c>
-      <c r="H15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2026,7 +2087,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16">
         <v>-20.489854484970898</v>
@@ -2037,11 +2098,14 @@
       <c r="G16" s="8">
         <v>40794</v>
       </c>
-      <c r="H16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2063,11 +2127,14 @@
       <c r="G17" s="8">
         <v>38792</v>
       </c>
-      <c r="H17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2078,7 +2145,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18">
         <v>-21.694117227648398</v>
@@ -2089,11 +2156,14 @@
       <c r="G18" s="8">
         <v>41164</v>
       </c>
-      <c r="H18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2115,11 +2185,14 @@
       <c r="G19" s="8">
         <v>37973</v>
       </c>
-      <c r="H19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,16 +2203,20 @@
         <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20" s="9">
         <v>41893</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="9"/>
+      <c r="I20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2150,7 +2227,7 @@
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21">
         <v>-24.398089100002</v>
@@ -2161,13 +2238,16 @@
       <c r="G21" s="8">
         <v>43271</v>
       </c>
-      <c r="H21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
@@ -2176,7 +2256,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22">
         <v>-24.653181892518901</v>
@@ -2187,11 +2267,15 @@
       <c r="G22" s="4">
         <v>40836</v>
       </c>
-      <c r="H22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="4"/>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2202,7 +2286,7 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E23">
         <v>-24.661177370530499</v>
@@ -2213,11 +2297,15 @@
       <c r="G23" s="4">
         <v>40956</v>
       </c>
-      <c r="H23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="4"/>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2239,37 +2327,44 @@
       <c r="G24" s="8">
         <v>38734</v>
       </c>
-      <c r="H24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="1">
         <v>-24.6410406308256</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="1">
         <v>25.857531083677799</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="9">
         <v>40836</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="9"/>
+      <c r="I25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2280,7 +2375,7 @@
         <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E26">
         <v>-24.610641859848201</v>
@@ -2291,11 +2386,14 @@
       <c r="G26" s="8">
         <v>41593</v>
       </c>
-      <c r="H26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2306,7 +2404,7 @@
         <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E27">
         <v>-24.607695946166501</v>
@@ -2317,11 +2415,14 @@
       <c r="G27" s="8">
         <v>43269</v>
       </c>
-      <c r="H27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2343,11 +2444,14 @@
       <c r="G28" s="8">
         <v>41578</v>
       </c>
-      <c r="H28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -2364,39 +2468,47 @@
         <v>25.820474982272199</v>
       </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <v>-24.408350534564601</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>25.514232921324101</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="12">
         <v>37974</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="12"/>
+      <c r="I30" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
@@ -2416,11 +2528,14 @@
       <c r="G31" s="8">
         <v>40898</v>
       </c>
-      <c r="H31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -2431,16 +2546,20 @@
         <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G32" s="9">
         <v>41578</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="9"/>
+      <c r="I32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2451,7 +2570,7 @@
         <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E33">
         <v>-24.101431659148801</v>
@@ -2462,11 +2581,14 @@
       <c r="G33" s="8">
         <v>42058</v>
       </c>
-      <c r="H33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2477,7 +2599,7 @@
         <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E34">
         <v>-24.679677803042601</v>
@@ -2488,37 +2610,44 @@
       <c r="G34" s="8">
         <v>38792</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="I34" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="12">
+      <c r="D35" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="10">
         <v>-24.248006241559299</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>25.326797167480201</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="12">
         <v>43271</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="12"/>
+      <c r="I35" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -2529,8 +2658,12 @@
         <v>70</v>
       </c>
       <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="9"/>
+      <c r="J36" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2552,11 +2685,14 @@
       <c r="G37" s="8">
         <v>38567</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2567,7 +2703,7 @@
         <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E38">
         <v>-21.182075332863999</v>
@@ -2578,11 +2714,14 @@
       <c r="G38" s="8">
         <v>40711</v>
       </c>
-      <c r="H38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>191</v>
+      </c>
+      <c r="J38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2604,11 +2743,14 @@
       <c r="G39" s="8">
         <v>41576</v>
       </c>
-      <c r="H39" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -2630,11 +2772,14 @@
       <c r="G40" s="8">
         <v>40455</v>
       </c>
-      <c r="H40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>191</v>
+      </c>
+      <c r="J40" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2645,7 +2790,7 @@
         <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41">
         <v>-21.177267430845902</v>
@@ -2656,63 +2801,74 @@
       <c r="G41" s="8">
         <v>42716</v>
       </c>
-      <c r="H41" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B42" s="12" t="s">
+      <c r="I41" t="s">
+        <v>191</v>
+      </c>
+      <c r="J41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E42" s="12">
+      <c r="D42" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="10">
         <v>-19.991719080365801</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="10">
         <v>23.421276667397301</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="12">
         <v>38544</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="H42" s="12"/>
+      <c r="I42" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="12">
+      <c r="D43" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="10">
         <v>-19.975571172529399</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>23.431110654356601</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="12">
         <v>41164</v>
       </c>
-      <c r="H43" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="12"/>
+      <c r="I43" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2723,7 +2879,7 @@
         <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E44">
         <v>-24.648033001455602</v>
@@ -2734,13 +2890,16 @@
       <c r="G44" s="8">
         <v>41082</v>
       </c>
-      <c r="H44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
@@ -2749,16 +2908,19 @@
         <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G45" s="8">
         <v>43270</v>
       </c>
-      <c r="H45" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>191</v>
+      </c>
+      <c r="J45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -2769,7 +2931,7 @@
         <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E46">
         <v>-24.597743095530799</v>
@@ -2780,11 +2942,14 @@
       <c r="G46" s="8">
         <v>40763</v>
       </c>
-      <c r="H46" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>191</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -2795,7 +2960,7 @@
         <v>85</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E47">
         <v>-24.609455145702398</v>
@@ -2806,11 +2971,14 @@
       <c r="G47" s="8">
         <v>43271</v>
       </c>
-      <c r="H47" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>191</v>
+      </c>
+      <c r="J47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -2832,11 +3000,14 @@
       <c r="G48" s="8">
         <v>40283</v>
       </c>
-      <c r="H48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>191</v>
+      </c>
+      <c r="J48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
@@ -2850,11 +3021,15 @@
         <v>91</v>
       </c>
       <c r="G49" s="9"/>
-      <c r="H49" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="9"/>
+      <c r="I49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
@@ -2868,11 +3043,15 @@
         <v>95</v>
       </c>
       <c r="G50" s="9"/>
-      <c r="H50" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="9"/>
+      <c r="I50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -2894,11 +3073,14 @@
       <c r="G51" s="8">
         <v>40533</v>
       </c>
-      <c r="H51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>191</v>
+      </c>
+      <c r="J51" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -2920,11 +3102,14 @@
       <c r="G52" s="8">
         <v>37973</v>
       </c>
-      <c r="H52" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>191</v>
+      </c>
+      <c r="J52" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -2946,11 +3131,14 @@
       <c r="G53" s="8">
         <v>41148</v>
       </c>
-      <c r="H53" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>191</v>
+      </c>
+      <c r="J53" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -2972,11 +3160,14 @@
       <c r="G54" s="8">
         <v>40528</v>
       </c>
-      <c r="H54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>191</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
@@ -2987,16 +3178,20 @@
         <v>85</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G55" s="9">
         <v>41164</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H55" s="9"/>
+      <c r="I55" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3006,8 +3201,8 @@
       <c r="C56" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>213</v>
+      <c r="D56" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="E56">
         <v>-24.643876840152402</v>
@@ -3018,11 +3213,14 @@
       <c r="G56" s="8">
         <v>38567</v>
       </c>
-      <c r="H56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>191</v>
+      </c>
+      <c r="J56" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -3033,7 +3231,7 @@
         <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E57">
         <v>-24.666936705895601</v>
@@ -3044,11 +3242,14 @@
       <c r="G57" s="8">
         <v>37816</v>
       </c>
-      <c r="H57" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -3070,11 +3271,14 @@
       <c r="G58" s="8">
         <v>41893</v>
       </c>
-      <c r="H58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>191</v>
+      </c>
+      <c r="J58" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -3096,11 +3300,14 @@
       <c r="G59" s="8">
         <v>38567</v>
       </c>
-      <c r="H59" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>191</v>
+      </c>
+      <c r="J59" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
@@ -3114,11 +3321,15 @@
         <v>116</v>
       </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H60" s="9"/>
+      <c r="I60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -3140,11 +3351,14 @@
       <c r="G61" s="8">
         <v>40760</v>
       </c>
-      <c r="H61" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>191</v>
+      </c>
+      <c r="J61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>134</v>
       </c>
@@ -3160,11 +3374,15 @@
       <c r="G62" s="9">
         <v>41164</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H62" s="9"/>
+      <c r="I62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -3186,13 +3404,16 @@
       <c r="G63" s="8">
         <v>39204</v>
       </c>
-      <c r="H63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>84</v>
@@ -3201,16 +3422,20 @@
         <v>85</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G64" s="9">
         <v>43313</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H64" s="9"/>
+      <c r="I64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -3232,11 +3457,14 @@
       <c r="G65" s="8">
         <v>38397</v>
       </c>
-      <c r="H65" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>191</v>
+      </c>
+      <c r="J65" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -3258,11 +3486,14 @@
       <c r="G66" s="8">
         <v>38567</v>
       </c>
-      <c r="H66" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -3273,7 +3504,7 @@
         <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E67">
         <v>-24.663776193636</v>
@@ -3284,115 +3515,134 @@
       <c r="G67" s="8">
         <v>38558</v>
       </c>
-      <c r="H67" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B68" s="12" t="s">
+      <c r="I67" t="s">
+        <v>191</v>
+      </c>
+      <c r="J67" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="10">
         <v>-25.215733556414602</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="10">
         <v>25.673195312874</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="12">
         <v>36466</v>
       </c>
-      <c r="H68" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+      <c r="H68" s="12"/>
+      <c r="I68" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J68" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="10">
         <v>-25.2294387520895</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="10">
         <v>25.672649725892398</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="12">
         <v>40533</v>
       </c>
-      <c r="H69" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="H69" s="12"/>
+      <c r="I69" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E70" s="16">
+      <c r="D70" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="13">
         <v>-25.226946971602601</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="10">
         <v>25.669858900000001</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="14">
         <v>37973</v>
       </c>
-      <c r="H70" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
+      <c r="H70" s="14"/>
+      <c r="I70" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J70" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E71" s="12">
+      <c r="E71" s="10">
         <v>-25.206605468147</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="10">
         <v>25.6802436306929</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="12">
         <v>43311</v>
       </c>
-      <c r="H71" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H71" s="12"/>
+      <c r="I71" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>122</v>
       </c>
@@ -3406,60 +3656,72 @@
         <v>124</v>
       </c>
       <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
+      <c r="H72" s="9"/>
+      <c r="J72" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E73" s="12">
+      <c r="D73" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" s="10">
         <v>-24.861712748339102</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="10">
         <v>25.8549702173318</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="12">
         <v>38558</v>
       </c>
-      <c r="H73" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+      <c r="H73" s="12"/>
+      <c r="I73" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J73" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E74" s="12">
+      <c r="D74" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E74" s="10">
         <v>-24.606258142322801</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="10">
         <v>25.958188098432299</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="12">
         <v>43271</v>
       </c>
-      <c r="H74" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H74" s="12"/>
+      <c r="I74" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>137</v>
       </c>
@@ -3481,11 +3743,14 @@
       <c r="G75" s="8">
         <v>37974</v>
       </c>
-      <c r="H75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>191</v>
+      </c>
+      <c r="J75" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -3507,11 +3772,14 @@
       <c r="G76" s="8">
         <v>37973</v>
       </c>
-      <c r="H76" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>191</v>
+      </c>
+      <c r="J76" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>144</v>
       </c>
@@ -3533,11 +3801,14 @@
       <c r="G77" s="8">
         <v>39059</v>
       </c>
-      <c r="H77" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" t="s">
+        <v>191</v>
+      </c>
+      <c r="J77" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>146</v>
       </c>
@@ -3559,11 +3830,14 @@
       <c r="G78" s="8">
         <v>38168</v>
       </c>
-      <c r="H78" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>191</v>
+      </c>
+      <c r="J78" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -3574,7 +3848,7 @@
         <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E79">
         <v>-24.782741817431301</v>
@@ -3585,11 +3859,14 @@
       <c r="G79" s="8">
         <v>42396</v>
       </c>
-      <c r="H79" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>191</v>
+      </c>
+      <c r="J79" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -3600,7 +3877,7 @@
         <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E80">
         <v>-25.4696021860813</v>
@@ -3611,11 +3888,14 @@
       <c r="G80" s="8">
         <v>40284</v>
       </c>
-      <c r="H80" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>191</v>
+      </c>
+      <c r="J80" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -3626,7 +3906,7 @@
         <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E81">
         <v>-25.469154790182401</v>
@@ -3637,11 +3917,14 @@
       <c r="G81" s="8">
         <v>42852</v>
       </c>
-      <c r="H81" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>191</v>
+      </c>
+      <c r="J81" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -3652,7 +3935,7 @@
         <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E82">
         <v>-25.203663505344402</v>
@@ -3663,13 +3946,16 @@
       <c r="G82" s="8">
         <v>37973</v>
       </c>
-      <c r="H82" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>191</v>
+      </c>
+      <c r="J82" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>84</v>
@@ -3678,18 +3964,22 @@
         <v>94</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G83" s="9">
         <v>41164</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H83" s="9"/>
+      <c r="I83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>84</v>
@@ -3698,15 +3988,19 @@
         <v>94</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G84" s="9">
         <v>36466</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H84" s="9"/>
+      <c r="J84" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B85" t="s">
         <v>69</v>
@@ -3715,18 +4009,21 @@
         <v>70</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G85" s="8">
         <v>40535</v>
       </c>
-      <c r="H85" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>191</v>
+      </c>
+      <c r="J85" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B86" t="s">
         <v>69</v>
@@ -3735,18 +4032,21 @@
         <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G86" s="8">
         <v>41921</v>
       </c>
-      <c r="H86" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>191</v>
+      </c>
+      <c r="J86" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B87" t="s">
         <v>39</v>
@@ -3755,7 +4055,7 @@
         <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E87">
         <v>-21.699264482212701</v>
@@ -3766,13 +4066,16 @@
       <c r="G87" s="8">
         <v>41576</v>
       </c>
-      <c r="H87" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>191</v>
+      </c>
+      <c r="J87" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B88" t="s">
         <v>35</v>
@@ -3781,7 +4084,7 @@
         <v>36</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E88">
         <v>-17.8054789908382</v>
@@ -3792,39 +4095,46 @@
       <c r="G88" s="8">
         <v>41947</v>
       </c>
-      <c r="H88" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+      <c r="I88" t="s">
+        <v>191</v>
+      </c>
+      <c r="J88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E89" s="12">
+      <c r="E89" s="10">
         <v>-20.008352325631101</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="10">
         <v>23.4338570387735</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G89" s="12">
         <v>43271</v>
       </c>
-      <c r="H89" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H89" s="12"/>
+      <c r="I89" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J89" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>141</v>
@@ -3833,18 +4143,22 @@
         <v>154</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G90" s="9">
         <v>43271</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H90" s="9"/>
+      <c r="I90" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
@@ -3853,18 +4167,22 @@
         <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G91" s="9">
         <v>41578</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H91" s="9"/>
+      <c r="I91" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>84</v>
@@ -3873,18 +4191,22 @@
         <v>130</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G92" s="9">
         <v>43913</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H92" s="9"/>
+      <c r="I92" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>84</v>
@@ -3893,18 +4215,22 @@
         <v>85</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G93" s="9">
         <v>44228</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H93" s="9"/>
+      <c r="I93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>84</v>
@@ -3913,18 +4239,22 @@
         <v>85</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G94" s="9">
         <v>42802</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="9"/>
+      <c r="I94" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>84</v>
@@ -3933,18 +4263,22 @@
         <v>85</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G95" s="9">
         <v>43314</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H95" s="9"/>
+      <c r="I95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>84</v>
@@ -3953,18 +4287,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G96" s="9">
         <v>40276</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H96" s="9"/>
+      <c r="I96" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>84</v>
@@ -3973,18 +4311,22 @@
         <v>85</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G97" s="9">
         <v>40226</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H97" s="9"/>
+      <c r="I97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>84</v>
@@ -3993,18 +4335,22 @@
         <v>85</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G98" s="9">
         <v>41082</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H98" s="9"/>
+      <c r="I98" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>84</v>
@@ -4013,70 +4359,82 @@
         <v>85</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G99" s="9">
         <v>41578</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
+      <c r="H99" s="9"/>
+      <c r="I99" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="E100" s="10">
+        <v>-24.6593893825032</v>
+      </c>
+      <c r="F100" s="10">
+        <v>25.9012579929068</v>
+      </c>
+      <c r="G100" s="12">
+        <v>41578</v>
+      </c>
+      <c r="H100" s="12"/>
+      <c r="I100" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J100" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E100" s="12">
-        <v>-24.6593893825032</v>
-      </c>
-      <c r="F100" s="12">
-        <v>25.9012579929068</v>
-      </c>
-      <c r="G100" s="15">
-        <v>41578</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
+      <c r="C101" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D101" s="12" t="s">
+      <c r="E101" s="10">
+        <v>-24.863566980972699</v>
+      </c>
+      <c r="F101" s="10">
+        <v>25.862541601057998</v>
+      </c>
+      <c r="G101" s="12">
+        <v>41598</v>
+      </c>
+      <c r="H101" s="12"/>
+      <c r="I101" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J101" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="E101" s="12">
-        <v>-24.863566980972699</v>
-      </c>
-      <c r="F101" s="12">
-        <v>25.862541601057998</v>
-      </c>
-      <c r="G101" s="15">
-        <v>41598</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>49</v>
@@ -4085,70 +4443,82 @@
         <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G102" s="9">
         <v>42298</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="12" t="s">
+      <c r="H102" s="9"/>
+      <c r="I102" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="E103" s="10">
+        <v>-24.618117040922399</v>
+      </c>
+      <c r="F103" s="10">
+        <v>25.864396576686499</v>
+      </c>
+      <c r="G103" s="12">
+        <v>41578</v>
+      </c>
+      <c r="H103" s="12"/>
+      <c r="I103" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J103" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C104" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E103" s="12">
-        <v>-24.618117040922399</v>
-      </c>
-      <c r="F103" s="12">
-        <v>25.864396576686499</v>
-      </c>
-      <c r="G103" s="15">
-        <v>41578</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
+      <c r="D104" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D104" s="12" t="s">
+      <c r="E104" s="10">
+        <v>-24.621688155404701</v>
+      </c>
+      <c r="F104" s="10">
+        <v>25.866353152381301</v>
+      </c>
+      <c r="G104" s="12">
+        <v>38734</v>
+      </c>
+      <c r="H104" s="12"/>
+      <c r="I104" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J104" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E104" s="12">
-        <v>-24.621688155404701</v>
-      </c>
-      <c r="F104" s="12">
-        <v>25.866353152381301</v>
-      </c>
-      <c r="G104" s="15">
-        <v>38734</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>49</v>
@@ -4157,27 +4527,31 @@
         <v>52</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G105" s="9">
         <v>38558</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H105" s="9"/>
+      <c r="I105" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D106" t="s">
         <v>284</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D106" t="s">
-        <v>285</v>
       </c>
       <c r="E106">
         <v>-26.022013439999998</v>
@@ -4188,42 +4562,49 @@
       <c r="G106" s="8">
         <v>41082</v>
       </c>
-      <c r="H106" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>191</v>
+      </c>
+      <c r="J106" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="G107" s="9">
         <v>43028</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H107" s="9"/>
+      <c r="I107" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
         <v>289</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>290</v>
-      </c>
-      <c r="D108" t="s">
-        <v>291</v>
       </c>
       <c r="E108">
         <v>-20.216598922202198</v>
@@ -4234,34 +4615,41 @@
       <c r="G108" s="8">
         <v>42597</v>
       </c>
-      <c r="H108" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+      <c r="I108" t="s">
+        <v>191</v>
+      </c>
+      <c r="J108" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E109" s="12">
+      <c r="E109" s="10">
         <v>-19.362931127505998</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="10">
         <v>22.164140762621901</v>
       </c>
-      <c r="G109" s="15">
+      <c r="G109" s="12">
         <v>44497</v>
       </c>
-      <c r="H109" s="12" t="s">
-        <v>192</v>
+      <c r="H109" s="12"/>
+      <c r="I109" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J109" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4273,24 +4661,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4302,7 +4720,7 @@
     <col min="8" max="8" width="10.5546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4325,15 +4743,18 @@
         <v>162</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -4342,28 +4763,31 @@
         <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="20">
+        <v>40063</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="23">
-        <v>40063</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E3">
         <v>-24.6662479830552</v>
@@ -4375,131 +4799,146 @@
         <v>40498</v>
       </c>
       <c r="I3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="10">
         <v>-21.170734046437001</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>27.5142387604559</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="12">
         <v>38058</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="12">
         <v>44168</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="I4" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="10">
+        <v>-21.168105973236401</v>
+      </c>
+      <c r="F5" s="10">
+        <v>27.5115401394225</v>
+      </c>
+      <c r="G5" s="12">
+        <v>40470</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E5" s="12">
-        <v>-21.168105973236401</v>
-      </c>
-      <c r="F5" s="12">
-        <v>27.5115401394225</v>
-      </c>
-      <c r="G5" s="15">
-        <v>40470</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="10">
+        <v>-24.599938298110601</v>
+      </c>
+      <c r="F6" s="10">
+        <v>24.7287120125049</v>
+      </c>
+      <c r="G6" s="12">
+        <v>40683</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="12">
-        <v>-24.599938298110601</v>
-      </c>
-      <c r="F6" s="12">
-        <v>24.7287120125049</v>
-      </c>
-      <c r="G6" s="15">
-        <v>40683</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="E7" s="10">
+        <v>-25.225047877555301</v>
+      </c>
+      <c r="F7" s="10">
+        <v>25.6700058611721</v>
+      </c>
+      <c r="G7" s="12">
+        <v>44160</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E7" s="12">
-        <v>-25.225047877555301</v>
-      </c>
-      <c r="F7" s="12">
-        <v>25.6700058611721</v>
-      </c>
-      <c r="G7" s="15">
-        <v>44160</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>307</v>
-      </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E8">
         <v>-24.6041250172022</v>
@@ -4507,53 +4946,59 @@
       <c r="F8">
         <v>25.931394798041001</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>44160</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="18"/>
       <c r="I8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>-21.975296693519699</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>27.844779439437801</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>40436</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="12"/>
+      <c r="I9" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E10">
         <v>-24.674451490875999</v>
@@ -4562,15 +5007,18 @@
         <v>25.934566275306299</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>82</v>
@@ -4580,19 +5028,22 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E12">
         <v>-24.642668216974201</v>
@@ -4607,12 +5058,15 @@
         <v>44168</v>
       </c>
       <c r="I12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>84</v>
@@ -4621,7 +5075,7 @@
         <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E13" s="1">
         <v>-24.680957355861299</v>
@@ -4632,7 +5086,10 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4643,10 +5100,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4655,7 +5112,7 @@
     <col min="2" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4674,11 +5131,17 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -4698,9 +5161,9 @@
         <v>25.9028300989395</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -4709,7 +5172,7 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E3">
         <v>-24.604366626171501</v>
@@ -4721,7 +5184,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -4741,7 +5204,7 @@
         <v>25.873020020798201</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -4761,7 +5224,7 @@
         <v>26.850759675338299</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -4781,7 +5244,7 @@
         <v>27.068283009383599</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -4801,7 +5264,7 @@
         <v>27.519202661585201</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -4821,7 +5284,7 @@
         <v>26.147223543590702</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -4841,7 +5304,7 @@
         <v>25.524938681816899</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -4861,7 +5324,7 @@
         <v>25.417263926002398</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -4881,7 +5344,7 @@
         <v>21.652218852926101</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -4901,7 +5364,7 @@
         <v>23.424740327755401</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>186</v>
       </c>
@@ -4921,7 +5384,7 @@
         <v>22.154923000558899</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -4948,10 +5411,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4962,7 +5425,7 @@
     <col min="7" max="7" width="12" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4985,15 +5448,18 @@
         <v>162</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -5002,7 +5468,7 @@
         <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E2">
         <v>-24.550964854001599</v>
@@ -5014,12 +5480,15 @@
         <v>42986</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -5028,7 +5497,7 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E3">
         <v>-24.602952431146502</v>
@@ -5040,12 +5509,15 @@
         <v>41457</v>
       </c>
       <c r="I3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -5053,19 +5525,22 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>330</v>
+      <c r="D4" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="G4" s="9">
         <v>41457</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -5074,7 +5549,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E5">
         <v>-22.420644110428899</v>
@@ -5086,21 +5561,24 @@
         <v>42887</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6">
         <v>-19.977496207161899</v>
@@ -5112,32 +5590,38 @@
         <v>44679</v>
       </c>
       <c r="I6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G7" s="9">
         <v>41816</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -5146,7 +5630,7 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E8">
         <v>-24.657678802451901</v>
@@ -5158,47 +5642,53 @@
         <v>43843</v>
       </c>
       <c r="I8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="10">
+        <v>-21.178050244938898</v>
+      </c>
+      <c r="F9" s="10">
+        <v>27.5118386319315</v>
+      </c>
+      <c r="G9" s="12">
+        <v>41457</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>340</v>
-      </c>
-      <c r="E9" s="12">
-        <v>-21.178050244938898</v>
-      </c>
-      <c r="F9" s="12">
-        <v>27.5118386319315</v>
-      </c>
-      <c r="G9" s="15">
-        <v>41457</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>341</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E10">
         <v>-24.652849367578</v>
@@ -5210,21 +5700,24 @@
         <v>43809</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E11">
         <v>-21.6944913145737</v>
@@ -5236,21 +5729,24 @@
         <v>41346</v>
       </c>
       <c r="I11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E12">
         <v>-24.981032255071099</v>
@@ -5262,21 +5758,24 @@
         <v>41828</v>
       </c>
       <c r="I12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E13">
         <v>-17.795791616463202</v>
@@ -5288,21 +5787,24 @@
         <v>41457</v>
       </c>
       <c r="I13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14">
         <v>-24.406570867149799</v>
@@ -5314,21 +5816,24 @@
         <v>43412</v>
       </c>
       <c r="I14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
         <v>351</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>352</v>
       </c>
       <c r="E15">
         <v>-24.6781211962486</v>
@@ -5340,21 +5845,24 @@
         <v>41541</v>
       </c>
       <c r="I15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16">
         <v>-24.613963685999199</v>
@@ -5366,12 +5874,15 @@
         <v>43809</v>
       </c>
       <c r="I16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>49</v>
@@ -5380,18 +5891,21 @@
         <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G17" s="9">
         <v>43811</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -5400,7 +5914,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E18">
         <v>-21.413243244560601</v>
@@ -5412,21 +5926,24 @@
         <v>41453</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
         <v>359</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>360</v>
       </c>
       <c r="E19">
         <v>-25.229148518766301</v>
@@ -5438,12 +5955,15 @@
         <v>44432</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -5452,7 +5972,7 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E20">
         <v>-24.407997625170101</v>
@@ -5464,12 +5984,15 @@
         <v>41457</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -5478,44 +6001,50 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G21" s="9">
         <v>34600</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="10">
+        <v>-23.113349247105901</v>
+      </c>
+      <c r="F22" s="10">
+        <v>26.833760499323301</v>
+      </c>
+      <c r="G22" s="12">
+        <v>41828</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>366</v>
-      </c>
-      <c r="E22" s="12">
-        <v>-23.113349247105901</v>
-      </c>
-      <c r="F22" s="12">
-        <v>26.833760499323301</v>
-      </c>
-      <c r="G22" s="15">
-        <v>41828</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>367</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
@@ -5524,7 +6053,7 @@
         <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E23">
         <v>-21.184593387552699</v>
@@ -5536,12 +6065,15 @@
         <v>41453</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -5550,7 +6082,7 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E24">
         <v>-24.403519967497601</v>
@@ -5562,12 +6094,15 @@
         <v>41473</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -5576,7 +6111,7 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E25">
         <v>-21.1701991457148</v>
@@ -5588,21 +6123,24 @@
         <v>41453</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E26">
         <v>-21.331330858872398</v>
@@ -5614,12 +6152,15 @@
         <v>41453</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -5628,7 +6169,7 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E27">
         <v>-22.541881124260801</v>
@@ -5640,12 +6181,15 @@
         <v>43033</v>
       </c>
       <c r="I27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -5654,7 +6198,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E28">
         <v>-22.554405719069401</v>
@@ -5666,12 +6210,15 @@
         <v>41457</v>
       </c>
       <c r="I28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
@@ -5680,7 +6227,7 @@
         <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E29">
         <v>-24.611966816743902</v>
@@ -5692,12 +6239,15 @@
         <v>43809</v>
       </c>
       <c r="I29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
@@ -5706,7 +6256,7 @@
         <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E30">
         <v>-24.651913275633</v>
@@ -5718,12 +6268,15 @@
         <v>41807</v>
       </c>
       <c r="I30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -5732,7 +6285,7 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E31">
         <v>-24.392624770567402</v>
@@ -5744,12 +6297,15 @@
         <v>41828</v>
       </c>
       <c r="I31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -5758,7 +6314,7 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E32">
         <v>-22.387782268715998</v>
@@ -5770,12 +6326,15 @@
         <v>41452</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
@@ -5784,7 +6343,7 @@
         <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E33">
         <v>-24.6707578180608</v>
@@ -5796,12 +6355,15 @@
         <v>41828</v>
       </c>
       <c r="I33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -5810,7 +6372,7 @@
         <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E34">
         <v>-24.6238272544003</v>
@@ -5822,12 +6384,15 @@
         <v>43809</v>
       </c>
       <c r="I34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="J34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -5836,7 +6401,7 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E35">
         <v>-20.4907569109651</v>
@@ -5848,7 +6413,10 @@
         <v>42550</v>
       </c>
       <c r="I35" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="J35" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
